--- a/Football Game.xlsx
+++ b/Football Game.xlsx
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,23 +158,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,16 +198,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,47 +537,51 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" activeCellId="1" sqref="B5:B8 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="4" width="30" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="str">
@@ -547,19 +593,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="str">
@@ -576,10 +622,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
@@ -587,10 +633,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F6" t="str">
@@ -602,10 +648,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
@@ -613,10 +659,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H8" t="s">
@@ -634,10 +680,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
@@ -695,6 +741,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select a color for the scorebug" sqref="E2">
       <formula1>COLORS</formula1>

--- a/Football Game.xlsx
+++ b/Football Game.xlsx
@@ -109,9 +109,6 @@
     <t>Panthers</t>
   </si>
   <si>
-    <t>Parkview</t>
-  </si>
-  <si>
     <t>Brookwood</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Title Cased Event Name</t>
+  </si>
+  <si>
+    <t>North Cobb</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="B5:B8 B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,30 +556,30 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -594,16 +594,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>

--- a/Football Game.xlsx
+++ b/Football Game.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>AQUA</t>
   </si>
@@ -106,15 +106,6 @@
     <t>TN</t>
   </si>
   <si>
-    <t>Panthers</t>
-  </si>
-  <si>
-    <t>Brookwood</t>
-  </si>
-  <si>
-    <t>Broncos</t>
-  </si>
-  <si>
     <t>VISITOR</t>
   </si>
   <si>
@@ -142,7 +133,13 @@
     <t>Title Cased Event Name</t>
   </si>
   <si>
-    <t>North Cobb</t>
+    <t>East</t>
+  </si>
+  <si>
+    <t>All Stars</t>
+  </si>
+  <si>
+    <t>West</t>
   </si>
 </sst>
 </file>
@@ -537,7 +534,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,30 +553,30 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -594,16 +591,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -626,7 +623,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>

--- a/Football Game.xlsx
+++ b/Football Game.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="10035"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>AQUA</t>
   </si>
@@ -133,13 +133,16 @@
     <t>Title Cased Event Name</t>
   </si>
   <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>All Stars</t>
-  </si>
-  <si>
-    <t>West</t>
+    <t>Brookwood</t>
+  </si>
+  <si>
+    <t>Broncos</t>
+  </si>
+  <si>
+    <t>Parkview</t>
+  </si>
+  <si>
+    <t>Panthers</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,14 +579,14 @@
         <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F2" t="str">
         <f>B11 &amp; "Images\V_" &amp; E2 &amp; ".png"</f>
-        <v>D:\PlayOn! Sports\cold-steel-xp\Images\V_BURNT_ORANGE.png</v>
+        <v>D:\PlayOn! Sports\cold-steel-xp\Images\V_OLD_GOLD.png</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -597,17 +600,17 @@
         <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="str">
         <f>B11 &amp; "Images\H_" &amp; E3 &amp; ".png"</f>
-        <v>D:\PlayOn! Sports\cold-steel-xp\Images\H_MAROON.png</v>
+        <v>D:\PlayOn! Sports\cold-steel-xp\Images\H_PURPLE.png</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -749,8 +752,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D3" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Football Game.xlsx
+++ b/Football Game.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="10035"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,9 +547,9 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -654,6 +654,10 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F7" t="str">
+        <f>B7 &amp; ", " &amp; B8</f>
+        <v>Cookeville, TN</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -670,11 +674,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Brookwood Broncos</v>
+      </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f>B3 &amp; " " &amp; C3</f>
+        <v>Parkview Panthers</v>
+      </c>
       <c r="H10" t="s">
         <v>8</v>
       </c>
@@ -741,7 +753,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select a color for the scorebug" sqref="E2">
       <formula1>COLORS</formula1>
